--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_6_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_6_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.8910668364245</v>
+        <v>31022.32230044867</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>155.8910668364245</v>
+        <v>31022.32230044867</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60888.68925850953</v>
+        <v>4430711.3469398</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60888.68925850953</v>
+        <v>4430711.3469398</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609782763.866661</v>
+        <v>62049070.65863016</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14642.41932987582</v>
+        <v>1424139.48060518</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28696.50113130363</v>
+        <v>2746485.372954404</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42750.58293273142</v>
+        <v>4068831.26530363</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59585.58776494432</v>
+        <v>5173857.813650653</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75120.60410777364</v>
+        <v>6415591.01686894</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90655.62045060298</v>
+        <v>7657324.220087219</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>106194.4380055535</v>
+        <v>8899151.978457017</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121734.324033445</v>
+        <v>10140923.57933364</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>138568.6607610857</v>
+        <v>11245817.17487079</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>154088.9901083236</v>
+        <v>12488714.71167499</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>169609.3194555614</v>
+        <v>13731612.24847918</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>185129.6488027992</v>
+        <v>14974509.78528338</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200649.978150037</v>
+        <v>16217407.32208759</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>216971.5209994877</v>
+        <v>17374239.88308903</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236963.8124519649</v>
+        <v>18075988.65262809</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>134</v>
@@ -27052,7 +27052,7 @@
         <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
